--- a/earlywarning-pom/earlywarning-config/src/baf-instances/24_Inst_Workspace_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/24_Inst_Workspace_BE.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2040" yWindow="0" windowWidth="20610" windowHeight="11640" activeTab="3"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="r Workspace_TargetVariable" sheetId="5" r:id="rId4"/>
     <sheet name="Fields definition" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -23,7 +28,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +52,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +76,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +100,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="41">
   <si>
     <t>Workspace</t>
   </si>
@@ -197,19 +202,46 @@
     <t>Performance</t>
   </si>
   <si>
-    <t>WS000001</t>
-  </si>
-  <si>
     <t>BE_TARGET</t>
   </si>
   <si>
-    <t>WS000001_BE_TARGET</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_BIB</t>
   </si>
   <si>
-    <t>WS000001_COUNTERPARTY_BIB</t>
+    <t>BL_BE_000001</t>
+  </si>
+  <si>
+    <t>BL_BE_000004</t>
+  </si>
+  <si>
+    <t>WS_BIB_BL_BE_000004</t>
+  </si>
+  <si>
+    <t>WS_BIB_BL_BE_000001</t>
+  </si>
+  <si>
+    <t>WS_BIB_CORPORATE</t>
+  </si>
+  <si>
+    <t>WS_BIB_RETAIL</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>WS_BIB_CORPORATE_BE_TARGET</t>
+  </si>
+  <si>
+    <t>WS_BIB_RETAIL_BE_TARGET</t>
+  </si>
+  <si>
+    <t>WS_BIB_CORPORATE_COUNTERPARTY_BIB</t>
+  </si>
+  <si>
+    <t>WS_BIB_RETAIL_COUNTERPARTY_BIB</t>
   </si>
 </sst>
 </file>
@@ -931,7 +963,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -939,16 +971,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
@@ -985,15 +1017,32 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
         <v>17</v>
       </c>
     </row>
@@ -1006,18 +1055,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="6" width="19.5703125" customWidth="1"/>
+    <col min="2" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -1055,19 +1104,39 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1080,14 +1149,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="6" width="19.5703125" customWidth="1"/>
@@ -1123,6 +1194,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1132,17 +1237,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1181,19 +1286,39 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
